--- a/data/trans_orig/P16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>98221</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>82202</v>
+        <v>82686</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>117623</v>
+        <v>117789</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1988016709043503</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1663784470854288</v>
+        <v>0.1673584268181123</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2380722386415663</v>
+        <v>0.2384086401220704</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>187</v>
@@ -765,19 +765,19 @@
         <v>177728</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>158857</v>
+        <v>157077</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>198019</v>
+        <v>199640</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3801749099974082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.339808169861087</v>
+        <v>0.336000541755174</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4235801152993726</v>
+        <v>0.4270464351512412</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>287</v>
@@ -786,19 +786,19 @@
         <v>275948</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>249412</v>
+        <v>249825</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>303721</v>
+        <v>306926</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2869819526474023</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2593842626795683</v>
+        <v>0.2598137417312598</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3158654373329474</v>
+        <v>0.3191985756652329</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>395843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>376441</v>
+        <v>376275</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>411862</v>
+        <v>411378</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8011983290956497</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7619277613584337</v>
+        <v>0.7615913598779297</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8336215529145712</v>
+        <v>0.8326415731818879</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>302</v>
@@ -836,19 +836,19 @@
         <v>289761</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269470</v>
+        <v>267849</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308632</v>
+        <v>310412</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6198250900025918</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5764198847006275</v>
+        <v>0.5729535648487589</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.660191830138913</v>
+        <v>0.6639994582448261</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>701</v>
@@ -857,19 +857,19 @@
         <v>685605</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>657832</v>
+        <v>654627</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>712141</v>
+        <v>711728</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7130180473525977</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6841345626670526</v>
+        <v>0.680801424334767</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.740615737320432</v>
+        <v>0.7401862582687402</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>147640</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125727</v>
+        <v>125732</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>171572</v>
+        <v>173076</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.200737195393784</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1709435787324925</v>
+        <v>0.1709504635038611</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2332764126086583</v>
+        <v>0.2353209265972727</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>259</v>
@@ -982,19 +982,19 @@
         <v>273149</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>246773</v>
+        <v>248630</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>298278</v>
+        <v>299164</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4366936339709837</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3945252043728122</v>
+        <v>0.3974944605949042</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4768677034051408</v>
+        <v>0.4782837782653926</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>403</v>
@@ -1003,19 +1003,19 @@
         <v>420789</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>385904</v>
+        <v>387635</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>456020</v>
+        <v>457142</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3091803984344362</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2835479601545002</v>
+        <v>0.2848202166884463</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3350671476414607</v>
+        <v>0.335891163998403</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>587849</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>563917</v>
+        <v>562413</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>609762</v>
+        <v>609757</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.799262804606216</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7667235873913416</v>
+        <v>0.7646790734027272</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8290564212675073</v>
+        <v>0.8290495364961389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>332</v>
@@ -1053,19 +1053,19 @@
         <v>352345</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>327216</v>
+        <v>326330</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>378721</v>
+        <v>376864</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5633063660290163</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.523132296594859</v>
+        <v>0.5217162217346073</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6054747956271879</v>
+        <v>0.6025055394050957</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>891</v>
@@ -1074,19 +1074,19 @@
         <v>940193</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>904962</v>
+        <v>903840</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>975078</v>
+        <v>973347</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6908196015655639</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6649328523585394</v>
+        <v>0.664108836001597</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7164520398454999</v>
+        <v>0.7151797833115537</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>174741</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>151506</v>
+        <v>152251</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>197453</v>
+        <v>198467</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2740388822189413</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2376004087785885</v>
+        <v>0.238768680935778</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3096573414220179</v>
+        <v>0.3112483297153827</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>297</v>
@@ -1199,19 +1199,19 @@
         <v>312045</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>284419</v>
+        <v>283833</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>338720</v>
+        <v>340413</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4524066149896085</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4123547936940015</v>
+        <v>0.4115052479270147</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4910804559536816</v>
+        <v>0.4935356034726909</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>470</v>
@@ -1220,19 +1220,19 @@
         <v>486786</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>446344</v>
+        <v>450949</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>521196</v>
+        <v>523212</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3667228551931142</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3362554857064113</v>
+        <v>0.3397252579349523</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3926456912925996</v>
+        <v>0.3941644831058988</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>462908</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>440196</v>
+        <v>439182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>486143</v>
+        <v>485398</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7259611177810588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.690342658577982</v>
+        <v>0.6887516702846173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7623995912214115</v>
+        <v>0.761231319064222</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>361</v>
@@ -1270,19 +1270,19 @@
         <v>377699</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>351024</v>
+        <v>349331</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>405325</v>
+        <v>405911</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5475933850103915</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5089195440463185</v>
+        <v>0.5064643965273091</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5876452063059985</v>
+        <v>0.5884947520729853</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>800</v>
@@ -1291,19 +1291,19 @@
         <v>840608</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>806198</v>
+        <v>804182</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>881050</v>
+        <v>876445</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6332771448068858</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6073543087074005</v>
+        <v>0.6058355168941012</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6637445142935886</v>
+        <v>0.6602747420650477</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>206302</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>181881</v>
+        <v>182687</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>228920</v>
+        <v>230109</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3973873626744026</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3503457824751913</v>
+        <v>0.3518988691675737</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.440953866066449</v>
+        <v>0.443244029446682</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>287</v>
@@ -1416,19 +1416,19 @@
         <v>292277</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>272032</v>
+        <v>272285</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>315443</v>
+        <v>314625</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5668224342742689</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5275589929501109</v>
+        <v>0.5280513084653496</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6117481197276539</v>
+        <v>0.6101609528192155</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>482</v>
@@ -1437,19 +1437,19 @@
         <v>498580</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>467529</v>
+        <v>464990</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>531517</v>
+        <v>532393</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4818179419795451</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4518107986514536</v>
+        <v>0.4493577428855458</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5136475682894274</v>
+        <v>0.5144938165931657</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>312845</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>290227</v>
+        <v>289038</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>337266</v>
+        <v>336460</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6026126373255974</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5590461339335512</v>
+        <v>0.556755970553318</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6496542175248093</v>
+        <v>0.6481011308324265</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>215</v>
@@ -1487,19 +1487,19 @@
         <v>223365</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>200199</v>
+        <v>201017</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>243610</v>
+        <v>243357</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.433177565725731</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3882518802723461</v>
+        <v>0.3898390471807845</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4724410070498891</v>
+        <v>0.4719486915346503</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>504</v>
@@ -1508,19 +1508,19 @@
         <v>536209</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>503272</v>
+        <v>502396</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>567260</v>
+        <v>569799</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5181820580204548</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4863524317105726</v>
+        <v>0.4855061834068342</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5481892013485464</v>
+        <v>0.5506422571144539</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>281900</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>264346</v>
+        <v>265348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>298581</v>
+        <v>298710</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7289702998135583</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6835765187834574</v>
+        <v>0.6861684745489643</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7721048132142588</v>
+        <v>0.7724394792966569</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>297</v>
@@ -1633,19 +1633,19 @@
         <v>303294</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>285990</v>
+        <v>286011</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>320223</v>
+        <v>319224</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7507541339457527</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7079211243479482</v>
+        <v>0.7079719120021768</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7926578043407678</v>
+        <v>0.7901857494367407</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>582</v>
@@ -1654,19 +1654,19 @@
         <v>585194</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>558627</v>
+        <v>561686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>608171</v>
+        <v>609413</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.740100194741918</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.706500808250467</v>
+        <v>0.7103686769297209</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7691592447537263</v>
+        <v>0.7707294692589866</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>104810</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88129</v>
+        <v>88000</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>122364</v>
+        <v>121362</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2710297001864416</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2278951867857407</v>
+        <v>0.227560520703343</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3164234812165417</v>
+        <v>0.3138315254510354</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>99</v>
@@ -1704,19 +1704,19 @@
         <v>100692</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83763</v>
+        <v>84762</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>117996</v>
+        <v>117975</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2492458660542473</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2073421956592321</v>
+        <v>0.2098142505632594</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2920788756520517</v>
+        <v>0.2920280879978234</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>206</v>
@@ -1725,19 +1725,19 @@
         <v>205502</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>182525</v>
+        <v>181283</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>232069</v>
+        <v>229010</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.259899805258082</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2308407552462737</v>
+        <v>0.2292705307410135</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2934991917495326</v>
+        <v>0.2896313230702791</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>231489</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>217010</v>
+        <v>216967</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>244211</v>
+        <v>244509</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7911899512236074</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7417031589341907</v>
+        <v>0.7415568616012694</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8346715430846302</v>
+        <v>0.8356896915829483</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>335</v>
@@ -1850,19 +1850,19 @@
         <v>309373</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>298132</v>
+        <v>296006</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>318480</v>
+        <v>317936</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.902135545395422</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8693556754011192</v>
+        <v>0.8631587523344102</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9286920747348462</v>
+        <v>0.9271041335330626</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>576</v>
@@ -1871,19 +1871,19 @@
         <v>540862</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>522489</v>
+        <v>523244</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>557657</v>
+        <v>558332</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8510577695956817</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8221478080450002</v>
+        <v>0.8233353721830096</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8774855883908963</v>
+        <v>0.878547135251275</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>61094</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48372</v>
+        <v>48074</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>75573</v>
+        <v>75616</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2088100487763926</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1653284569153697</v>
+        <v>0.1643103084170516</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2582968410658092</v>
+        <v>0.2584431383987303</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -1921,19 +1921,19 @@
         <v>33561</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24454</v>
+        <v>24998</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44802</v>
+        <v>46928</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09786445460457809</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07130792526515378</v>
+        <v>0.07289586646693737</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1306443245988811</v>
+        <v>0.1368412476655899</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>98</v>
@@ -1942,19 +1942,19 @@
         <v>94655</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>77860</v>
+        <v>77185</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>113028</v>
+        <v>112273</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1489422304043183</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1225144116091037</v>
+        <v>0.121452864748725</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1778521919549997</v>
+        <v>0.1766646278169905</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>187570</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>178147</v>
+        <v>178170</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>195185</v>
+        <v>194859</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8936885874873701</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8487935225134787</v>
+        <v>0.8489006783847967</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.929969339227106</v>
+        <v>0.9284176958322904</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>271</v>
@@ -2067,19 +2067,19 @@
         <v>311609</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>300564</v>
+        <v>300781</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>319912</v>
+        <v>320149</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9332187162687863</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9001396688563165</v>
+        <v>0.9007893413265202</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9580843425812553</v>
+        <v>0.9587945223916348</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>468</v>
@@ -2088,19 +2088,19 @@
         <v>499179</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>483873</v>
+        <v>484675</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>509830</v>
+        <v>510687</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9179615636109536</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.889814269381103</v>
+        <v>0.8912883686985935</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9375485147373895</v>
+        <v>0.9391240329006669</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>22313</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14698</v>
+        <v>15024</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31736</v>
+        <v>31713</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1063114125126299</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07003066077289397</v>
+        <v>0.07158230416770964</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1512064774865213</v>
+        <v>0.1510993216152034</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -2138,19 +2138,19 @@
         <v>22299</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13996</v>
+        <v>13759</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>33344</v>
+        <v>33127</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0667812837312137</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04191565741874477</v>
+        <v>0.04120547760836524</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09986033114368352</v>
+        <v>0.09921065867347983</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>42</v>
@@ -2159,19 +2159,19 @@
         <v>44612</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>33961</v>
+        <v>33104</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>59918</v>
+        <v>59116</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08203843638904634</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06245148526261045</v>
+        <v>0.06087596709933293</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1101857306188971</v>
+        <v>0.1087116313014062</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>1327863</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1275041</v>
+        <v>1271980</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1387420</v>
+        <v>1385906</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4053892920892231</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3892629640014501</v>
+        <v>0.3883285284746935</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4235719234481347</v>
+        <v>0.4231097182316391</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1933</v>
@@ -2284,19 +2284,19 @@
         <v>1979475</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1920297</v>
+        <v>1927948</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2033805</v>
+        <v>2040337</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5857827492728864</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5682701241541868</v>
+        <v>0.5705344806960155</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6018605811283437</v>
+        <v>0.6037934919219309</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3268</v>
@@ -2305,19 +2305,19 @@
         <v>3307338</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3229296</v>
+        <v>3233351</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3391000</v>
+        <v>3399785</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4969911716007554</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4852638120019713</v>
+        <v>0.4858732256264137</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5095629345803319</v>
+        <v>0.5108830364390604</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1947662</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1888105</v>
+        <v>1889619</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2000484</v>
+        <v>2003545</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5946107079107769</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5764280765518651</v>
+        <v>0.5768902817683609</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6107370359985489</v>
+        <v>0.6116714715253065</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1364</v>
@@ -2355,19 +2355,19 @@
         <v>1399722</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1345392</v>
+        <v>1338860</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1458900</v>
+        <v>1451249</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4142172507271136</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3981394188716563</v>
+        <v>0.3962065080780691</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4317298758458132</v>
+        <v>0.4294655193039845</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3242</v>
@@ -2376,19 +2376,19 @@
         <v>3347384</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3263722</v>
+        <v>3254937</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3425426</v>
+        <v>3421371</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5030088283992445</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4904370654196679</v>
+        <v>0.4891169635609396</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5147361879980287</v>
+        <v>0.5141267743735863</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>124982</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>106936</v>
+        <v>106564</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>145385</v>
+        <v>146195</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2758343182702988</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2360074943972071</v>
+        <v>0.2351871203756632</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3208637128527367</v>
+        <v>0.3226504604218995</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>200</v>
@@ -2744,19 +2744,19 @@
         <v>208253</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>190052</v>
+        <v>188850</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>229222</v>
+        <v>231040</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4850538587056464</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4426611622724531</v>
+        <v>0.4398630983575088</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5338951547955232</v>
+        <v>0.5381306639467821</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>319</v>
@@ -2765,19 +2765,19 @@
         <v>333235</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>306245</v>
+        <v>302636</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>364478</v>
+        <v>360751</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3776267302931664</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3470420220267156</v>
+        <v>0.3429513536958427</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.41303219570708</v>
+        <v>0.4088089377442783</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>328123</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>307720</v>
+        <v>306910</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>346169</v>
+        <v>346541</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7241656817297012</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6791362871472629</v>
+        <v>0.6773495395781002</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7639925056027929</v>
+        <v>0.7648128796243366</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>220</v>
@@ -2815,19 +2815,19 @@
         <v>221086</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>200117</v>
+        <v>198299</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>239287</v>
+        <v>240489</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5149461412943536</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4661048452044769</v>
+        <v>0.4618693360532179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5573388377275469</v>
+        <v>0.5601369016424912</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>546</v>
@@ -2836,19 +2836,19 @@
         <v>549210</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>517967</v>
+        <v>521694</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>576200</v>
+        <v>579809</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6223732697068336</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5869678042929201</v>
+        <v>0.5911910622557217</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6529579779732845</v>
+        <v>0.6570486463041575</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>225264</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>201692</v>
+        <v>201011</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>252188</v>
+        <v>252696</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3282592900565106</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2939094732249884</v>
+        <v>0.2929172762719023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.367494076306587</v>
+        <v>0.3682339715058601</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>330</v>
@@ -2961,19 +2961,19 @@
         <v>356713</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>333177</v>
+        <v>332390</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>378624</v>
+        <v>383525</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5845314703630521</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5459633206457538</v>
+        <v>0.5446744758220327</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6204363103372464</v>
+        <v>0.628466577232364</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>548</v>
@@ -2982,19 +2982,19 @@
         <v>581977</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>542984</v>
+        <v>544729</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>618050</v>
+        <v>618557</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4488858521568106</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4188095702128565</v>
+        <v>0.4201553926091945</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4767087116344618</v>
+        <v>0.4770999191602734</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>460974</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>434050</v>
+        <v>433542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>484546</v>
+        <v>485227</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6717407099434894</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6325059236934122</v>
+        <v>0.6317660284941399</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7060905267750116</v>
+        <v>0.7070827237280976</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>241</v>
@@ -3032,19 +3032,19 @@
         <v>253542</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>231631</v>
+        <v>226730</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>277078</v>
+        <v>277865</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4154685296369479</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3795636896627535</v>
+        <v>0.3715334227676359</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4540366793542462</v>
+        <v>0.4553255241779673</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>689</v>
@@ -3053,19 +3053,19 @@
         <v>714516</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>678443</v>
+        <v>677936</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>753509</v>
+        <v>751764</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5511141478431894</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5232912883655383</v>
+        <v>0.5229000808397267</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5811904297871434</v>
+        <v>0.5798446073908057</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>252799</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>227402</v>
+        <v>223929</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>280263</v>
+        <v>278738</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3717336376605127</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3343883812909701</v>
+        <v>0.3292808605568519</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4121193052704523</v>
+        <v>0.4098757444164083</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>407</v>
@@ -3178,19 +3178,19 @@
         <v>431516</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>404764</v>
+        <v>405309</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>458880</v>
+        <v>458143</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6079281012024235</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5702384296287718</v>
+        <v>0.5710058428335391</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6464782540049956</v>
+        <v>0.6454397864231161</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>644</v>
@@ -3199,19 +3199,19 @@
         <v>684316</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>647807</v>
+        <v>644025</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>728481</v>
+        <v>722020</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4923597204961876</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4660921884830063</v>
+        <v>0.4633710579492391</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5241362370268199</v>
+        <v>0.519487515700661</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>427255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>399791</v>
+        <v>401316</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>452652</v>
+        <v>456125</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6282663623394873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5878806947295478</v>
+        <v>0.5901242555835916</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6656116187090303</v>
+        <v>0.6707191394431481</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>259</v>
@@ -3249,19 +3249,19 @@
         <v>278299</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>250935</v>
+        <v>251672</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>305051</v>
+        <v>304506</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3920718987975765</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3535217459950044</v>
+        <v>0.354560213576884</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4297615703712282</v>
+        <v>0.4289941571664611</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>671</v>
@@ -3270,19 +3270,19 @@
         <v>705553</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>661388</v>
+        <v>667849</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>742062</v>
+        <v>745844</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5076402795038124</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4758637629731801</v>
+        <v>0.480512484299339</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5339078115169937</v>
+        <v>0.5366289420507607</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>291941</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>265109</v>
+        <v>263477</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>316174</v>
+        <v>317737</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4749967695239785</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4313397272536316</v>
+        <v>0.4286855037093644</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5144246101868769</v>
+        <v>0.5169672408353081</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>376</v>
@@ -3395,19 +3395,19 @@
         <v>426140</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>402312</v>
+        <v>400960</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>451614</v>
+        <v>449312</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6926601956447586</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6539290573847647</v>
+        <v>0.6517325163509922</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7340671979979222</v>
+        <v>0.7303248009429326</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>638</v>
@@ -3416,19 +3416,19 @@
         <v>718081</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>678739</v>
+        <v>679919</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>756224</v>
+        <v>754497</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5838820781086198</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5518925759537396</v>
+        <v>0.5528523199584067</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6148966503388694</v>
+        <v>0.6134922660940434</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>322676</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>298443</v>
+        <v>296880</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>349508</v>
+        <v>351140</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5250032304760215</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.485575389813123</v>
+        <v>0.4830327591646921</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5686602727463684</v>
+        <v>0.5713144962906357</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>162</v>
@@ -3466,19 +3466,19 @@
         <v>189082</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>163608</v>
+        <v>165910</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>212910</v>
+        <v>214262</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3073398043552414</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2659328020020781</v>
+        <v>0.2696751990570677</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3460709426152355</v>
+        <v>0.3482674836490079</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>448</v>
@@ -3487,19 +3487,19 @@
         <v>511758</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>473615</v>
+        <v>475342</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>551100</v>
+        <v>549920</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4161179218913801</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3851033496611306</v>
+        <v>0.3865077339059566</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4481074240462604</v>
+        <v>0.4471476800415933</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>322327</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>301629</v>
+        <v>302916</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>340982</v>
+        <v>338393</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7524963377709061</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7041743354743635</v>
+        <v>0.7071792123606913</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.796046475896014</v>
+        <v>0.7900023669433623</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>340</v>
@@ -3612,19 +3612,19 @@
         <v>371726</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>355032</v>
+        <v>354210</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>387052</v>
+        <v>386069</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8301169116450273</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7928369294133547</v>
+        <v>0.7910010177070682</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8643421752872766</v>
+        <v>0.8621455056941357</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>635</v>
@@ -3633,19 +3633,19 @@
         <v>694054</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>667187</v>
+        <v>666599</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>717110</v>
+        <v>718774</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7921684767500038</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7615042919494931</v>
+        <v>0.7608330609203564</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8184836678065419</v>
+        <v>0.8203838380834159</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>106017</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87362</v>
+        <v>89951</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>126715</v>
+        <v>125428</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.247503662229094</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.203953524103986</v>
+        <v>0.2099976330566376</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2958256645256365</v>
+        <v>0.2928207876393087</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>66</v>
@@ -3683,19 +3683,19 @@
         <v>76074</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60748</v>
+        <v>61731</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92768</v>
+        <v>93590</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1698830883549727</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1356578247127233</v>
+        <v>0.1378544943058643</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2071630705866452</v>
+        <v>0.2089989822929317</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>163</v>
@@ -3704,19 +3704,19 @@
         <v>182090</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>159034</v>
+        <v>157370</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>208957</v>
+        <v>209545</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2078315232499962</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1815163321934582</v>
+        <v>0.1796161619165841</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2384957080505068</v>
+        <v>0.2391669390796436</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>274386</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>260796</v>
+        <v>261593</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>283705</v>
+        <v>283632</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8857286769236712</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.841859187823751</v>
+        <v>0.8444310948366597</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9158090097245927</v>
+        <v>0.9155744798436221</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>318</v>
@@ -3829,19 +3829,19 @@
         <v>325601</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>314110</v>
+        <v>313479</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>334399</v>
+        <v>334540</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9197871089318742</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8873275275173164</v>
+        <v>0.8855436416737265</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9446405908374104</v>
+        <v>0.9450385151700349</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>566</v>
@@ -3850,19 +3850,19 @@
         <v>599987</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>583365</v>
+        <v>582886</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>614041</v>
+        <v>614871</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9038920880826348</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8788496166104302</v>
+        <v>0.8781288770767248</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9250645143541057</v>
+        <v>0.9263150275080975</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>35400</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26081</v>
+        <v>26154</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48990</v>
+        <v>48193</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1142713230763289</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08419099027540733</v>
+        <v>0.0844255201563779</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1581408121762488</v>
+        <v>0.1555689051633403</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -3900,19 +3900,19 @@
         <v>28395</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19597</v>
+        <v>19456</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39886</v>
+        <v>40517</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08021289106812579</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05535940916258959</v>
+        <v>0.05496148482996507</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1126724724826836</v>
+        <v>0.1144563583262736</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>60</v>
@@ -3921,19 +3921,19 @@
         <v>63795</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>49741</v>
+        <v>48911</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>80417</v>
+        <v>80896</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09610791191736523</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07493548564589449</v>
+        <v>0.07368497249190266</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1211503833895699</v>
+        <v>0.1218711229232755</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>233524</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>224187</v>
+        <v>224604</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>240204</v>
+        <v>240333</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9346529984045276</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8972838548439493</v>
+        <v>0.8989502106578765</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9613875899891129</v>
+        <v>0.9619053069283756</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>340</v>
@@ -4046,19 +4046,19 @@
         <v>376820</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>367062</v>
+        <v>366890</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>382389</v>
+        <v>382498</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9687406209722934</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.943653879321788</v>
+        <v>0.9432133770790487</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9830593756545014</v>
+        <v>0.9833375466619454</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>547</v>
@@ -4067,19 +4067,19 @@
         <v>610344</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>597659</v>
+        <v>597546</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>619499</v>
+        <v>620127</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.955408711738555</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9355521730002426</v>
+        <v>0.9353762875989089</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9697406664543836</v>
+        <v>0.9707235511024708</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>16327</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9647</v>
+        <v>9518</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25664</v>
+        <v>25247</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06534700159547231</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03861241001088708</v>
+        <v>0.0380946930716244</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1027161451560508</v>
+        <v>0.1010497893421241</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -4117,19 +4117,19 @@
         <v>12159</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6590</v>
+        <v>6481</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>21917</v>
+        <v>22089</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03125937902770661</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01694062434549858</v>
+        <v>0.01666245333805453</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05634612067821262</v>
+        <v>0.05678662292095114</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -4138,19 +4138,19 @@
         <v>28486</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19331</v>
+        <v>18703</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>41171</v>
+        <v>41284</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04459128826144502</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03025933354561643</v>
+        <v>0.0292764488975292</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06444782699975746</v>
+        <v>0.06462371240109116</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>1725223</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1671005</v>
+        <v>1658965</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1787117</v>
+        <v>1782327</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5041572306352069</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4883132980448602</v>
+        <v>0.4847948968854915</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5222444836700096</v>
+        <v>0.5208444651202009</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2311</v>
@@ -4263,19 +4263,19 @@
         <v>2496770</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2438499</v>
+        <v>2441380</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2556146</v>
+        <v>2553562</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7022458102440358</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6858565087422758</v>
+        <v>0.6866667273713194</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7189461887262381</v>
+        <v>0.7182192685268474</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3897</v>
@@ -4284,19 +4284,19 @@
         <v>4221993</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4131107</v>
+        <v>4141009</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4300007</v>
+        <v>4303933</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6050953259057548</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5920696276823236</v>
+        <v>0.5934886826711058</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6162763389321386</v>
+        <v>0.6168389854762925</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>1696771</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1634877</v>
+        <v>1639667</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1750989</v>
+        <v>1763029</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.495842769364793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4777555163299904</v>
+        <v>0.4791555348797992</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5116867019551398</v>
+        <v>0.5152051031145085</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>984</v>
@@ -4334,19 +4334,19 @@
         <v>1058637</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>999261</v>
+        <v>1001845</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1116908</v>
+        <v>1114027</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2977541897559643</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.281053811273762</v>
+        <v>0.2817807314731526</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3141434912577243</v>
+        <v>0.3133332726286807</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2602</v>
@@ -4355,19 +4355,19 @@
         <v>2755408</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2677394</v>
+        <v>2673468</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2846294</v>
+        <v>2836392</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3949046740942453</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3837236610678611</v>
+        <v>0.3831610145237075</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4079303723176761</v>
+        <v>0.4065113173288943</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>93420</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>75738</v>
+        <v>76060</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112903</v>
+        <v>111228</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.222714262898053</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1805605375056232</v>
+        <v>0.1813279772011069</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2691601390633257</v>
+        <v>0.2651669167175925</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>174</v>
@@ -4723,19 +4723,19 @@
         <v>171046</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>151478</v>
+        <v>152667</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>189130</v>
+        <v>190253</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4322010591413191</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3827580879229807</v>
+        <v>0.3857614475425348</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4778963530633421</v>
+        <v>0.4807335047820394</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>259</v>
@@ -4744,19 +4744,19 @@
         <v>264466</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>236630</v>
+        <v>236815</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>291050</v>
+        <v>290700</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3244115359194935</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.290266329772669</v>
+        <v>0.2904929860044911</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3570216530030819</v>
+        <v>0.3565921850483989</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>326043</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>306560</v>
+        <v>308235</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>343725</v>
+        <v>343403</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.777285737101947</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7308398609366743</v>
+        <v>0.7348330832824074</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8194394624943767</v>
+        <v>0.8186720227988927</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>230</v>
@@ -4794,19 +4794,19 @@
         <v>224709</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>206625</v>
+        <v>205502</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>244277</v>
+        <v>243088</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5677989408586809</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5221036469366575</v>
+        <v>0.5192664952179605</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.617241912077019</v>
+        <v>0.6142385524574651</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>538</v>
@@ -4815,19 +4815,19 @@
         <v>550752</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>524168</v>
+        <v>524518</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>578588</v>
+        <v>578403</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6755884640805064</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6429783469969179</v>
+        <v>0.643407814951601</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7097336702273309</v>
+        <v>0.7095070139955089</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>192103</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>169648</v>
+        <v>168838</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>214382</v>
+        <v>215574</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3253245013337197</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2872970682054846</v>
+        <v>0.2859260731303261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3630537724972324</v>
+        <v>0.3650734177296051</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>273</v>
@@ -4940,19 +4940,19 @@
         <v>267386</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>244467</v>
+        <v>243564</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>289779</v>
+        <v>290148</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4744721984714825</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.433802018354955</v>
+        <v>0.4322013538623677</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5142076526728885</v>
+        <v>0.5148635741774487</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>454</v>
@@ -4961,19 +4961,19 @@
         <v>459489</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>424008</v>
+        <v>424804</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>495288</v>
+        <v>492875</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3981566792602543</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3674121439452394</v>
+        <v>0.3681014453281131</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4291771771308406</v>
+        <v>0.4270867540075126</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>398393</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>376114</v>
+        <v>374922</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>420848</v>
+        <v>421658</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6746754986662804</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6369462275027676</v>
+        <v>0.634926582270395</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7127029317945154</v>
+        <v>0.7140739268696739</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>306</v>
@@ -5011,19 +5011,19 @@
         <v>296158</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>273765</v>
+        <v>273396</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>319077</v>
+        <v>319980</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5255278015285175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4857923473271114</v>
+        <v>0.4851364258225513</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.566197981645045</v>
+        <v>0.5677986461376324</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>692</v>
@@ -5032,19 +5032,19 @@
         <v>694551</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>658752</v>
+        <v>661165</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>730032</v>
+        <v>729236</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6018433207397457</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5708228228691594</v>
+        <v>0.5729132459924875</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6325878560547606</v>
+        <v>0.6318985546718868</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>244872</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>216682</v>
+        <v>218259</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>273070</v>
+        <v>266696</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3659738284357298</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3238424325585502</v>
+        <v>0.3261989258684345</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4081165321105036</v>
+        <v>0.3985910648160345</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>340</v>
@@ -5157,19 +5157,19 @@
         <v>341353</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>314990</v>
+        <v>318141</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>368051</v>
+        <v>367109</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5161176062991381</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4762581894933376</v>
+        <v>0.4810214406213795</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5564845132603342</v>
+        <v>0.5550600675964817</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>571</v>
@@ -5178,19 +5178,19 @@
         <v>586225</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>548250</v>
+        <v>549975</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>620711</v>
+        <v>623545</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4406106609736692</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4120687154885825</v>
+        <v>0.4133646542212014</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4665305466401095</v>
+        <v>0.4686607136193492</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>424225</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>396027</v>
+        <v>402401</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>452415</v>
+        <v>450838</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6340261715642702</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5918834678894964</v>
+        <v>0.6014089351839655</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6761575674414498</v>
+        <v>0.6738010741315656</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>325</v>
@@ -5228,19 +5228,19 @@
         <v>320033</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>293335</v>
+        <v>294277</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>346396</v>
+        <v>343245</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4838823937008619</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4435154867396657</v>
+        <v>0.4449399324035183</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5237418105066624</v>
+        <v>0.5189785593786206</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>732</v>
@@ -5249,19 +5249,19 @@
         <v>744258</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>709772</v>
+        <v>706938</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>782233</v>
+        <v>780508</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5593893390263308</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5334694533598904</v>
+        <v>0.5313392863806508</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5879312845114175</v>
+        <v>0.5866353457787986</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>333381</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>307282</v>
+        <v>306536</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>362981</v>
+        <v>361324</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5160308726542177</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4756340999781069</v>
+        <v>0.474478404405541</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5618479651237492</v>
+        <v>0.5592837740672343</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>366</v>
@@ -5374,19 +5374,19 @@
         <v>396181</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>371138</v>
+        <v>371300</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>422617</v>
+        <v>422129</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6103760467721124</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5717928607329726</v>
+        <v>0.5720423955393742</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.651104128551747</v>
+        <v>0.6503530749283165</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>665</v>
@@ -5395,19 +5395,19 @@
         <v>729562</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>692517</v>
+        <v>694615</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>766333</v>
+        <v>767680</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5633137724609925</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5347102394709873</v>
+        <v>0.5363300968676208</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5917055606156837</v>
+        <v>0.5927456330492982</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>312667</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>283067</v>
+        <v>284724</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>338766</v>
+        <v>339512</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4839691273457823</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4381520348762508</v>
+        <v>0.4407162259327657</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5243659000218931</v>
+        <v>0.525521595594459</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>236</v>
@@ -5445,19 +5445,19 @@
         <v>252896</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>226460</v>
+        <v>226948</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>277939</v>
+        <v>277777</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3896239532278876</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3488958714482531</v>
+        <v>0.3496469250716835</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4282071392670274</v>
+        <v>0.4279576044606259</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>519</v>
@@ -5466,19 +5466,19 @@
         <v>565563</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>528792</v>
+        <v>527445</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>602608</v>
+        <v>600510</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4366862275390075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4082944393843163</v>
+        <v>0.4072543669507018</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4652897605290127</v>
+        <v>0.4636699031323792</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>311639</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>290498</v>
+        <v>290565</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>333333</v>
+        <v>333378</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6520772676186772</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6078397667783018</v>
+        <v>0.6079803603218955</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6974685989772278</v>
+        <v>0.6975640331240932</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>346</v>
@@ -5591,19 +5591,19 @@
         <v>395309</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>376312</v>
+        <v>374951</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>413535</v>
+        <v>413512</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7956325101520565</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7573977003769284</v>
+        <v>0.7546584247109535</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8323147291869579</v>
+        <v>0.8322684206760257</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>623</v>
@@ -5612,19 +5612,19 @@
         <v>706949</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>677118</v>
+        <v>675652</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>735615</v>
+        <v>733925</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7252488859714755</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6946458043556014</v>
+        <v>0.6931419082693014</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.754657022746696</v>
+        <v>0.7529237904018061</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>166279</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>144585</v>
+        <v>144540</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>187420</v>
+        <v>187353</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3479227323813228</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3025314010227722</v>
+        <v>0.3024359668759068</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3921602332216982</v>
+        <v>0.3920196396781045</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>87</v>
@@ -5662,19 +5662,19 @@
         <v>101540</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83314</v>
+        <v>83337</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>120537</v>
+        <v>121898</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2043674898479435</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1676852708130421</v>
+        <v>0.1677315793239742</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2426022996230716</v>
+        <v>0.2453415752890464</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>234</v>
@@ -5683,19 +5683,19 @@
         <v>267818</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>239152</v>
+        <v>240842</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>297649</v>
+        <v>299115</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2747511140285245</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.245342977253304</v>
+        <v>0.2470762095981939</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3053541956443986</v>
+        <v>0.3068580917306986</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>280600</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>264672</v>
+        <v>266400</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>292787</v>
+        <v>293233</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8392918473434082</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7916490091391697</v>
+        <v>0.7968164260913222</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8757424202279359</v>
+        <v>0.8770760632693297</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>326</v>
@@ -5808,19 +5808,19 @@
         <v>346418</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>334146</v>
+        <v>333080</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>356859</v>
+        <v>356159</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9170283091579404</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.884540710363407</v>
+        <v>0.8817181406049484</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9446671257340775</v>
+        <v>0.9428135853178972</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>599</v>
@@ -5829,19 +5829,19 @@
         <v>627019</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>607394</v>
+        <v>608724</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>643306</v>
+        <v>642840</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8805307342039623</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8529718119574327</v>
+        <v>0.8548394559952005</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9034032719451733</v>
+        <v>0.9027479459561952</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>53730</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41543</v>
+        <v>41097</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>69658</v>
+        <v>67930</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1607081526565917</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.124257579772064</v>
+        <v>0.12292393673067</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.20835099086083</v>
+        <v>0.2031835739086771</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -5879,19 +5879,19 @@
         <v>31344</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20903</v>
+        <v>21603</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43616</v>
+        <v>44682</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0829716908420596</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05533287426592251</v>
+        <v>0.05718641468210268</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.115459289636593</v>
+        <v>0.1182818593950514</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>80</v>
@@ -5900,19 +5900,19 @@
         <v>85073</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>68786</v>
+        <v>69252</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>104698</v>
+        <v>103368</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1194692657960377</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09659672805482658</v>
+        <v>0.09725205404380452</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1470281880425673</v>
+        <v>0.1451605440047995</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>233973</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>223582</v>
+        <v>224670</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>240385</v>
+        <v>241795</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9104068293226057</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8699754077478576</v>
+        <v>0.8742094371713124</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9353569957324522</v>
+        <v>0.9408450413452478</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>286</v>
@@ -6025,19 +6025,19 @@
         <v>380923</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>369412</v>
+        <v>369808</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>388860</v>
+        <v>389101</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9519060052696724</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9231387852181248</v>
+        <v>0.9241301687919072</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9717387089529602</v>
+        <v>0.9723415644516969</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>561</v>
@@ -6046,19 +6046,19 @@
         <v>614896</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>600810</v>
+        <v>602462</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>626231</v>
+        <v>626335</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9356769413388949</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9142426649980794</v>
+        <v>0.9167565855619821</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9529258707757612</v>
+        <v>0.9530829746442651</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>23025</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16613</v>
+        <v>15203</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33416</v>
+        <v>32328</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08959317067739424</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06464300426754767</v>
+        <v>0.05915495865475218</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1300245922521423</v>
+        <v>0.1257905628286875</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -6096,19 +6096,19 @@
         <v>19246</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11309</v>
+        <v>11068</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>30757</v>
+        <v>30361</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04809399473032765</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02826129104703984</v>
+        <v>0.02765843554830337</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07686121478187523</v>
+        <v>0.07586983120809396</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>42</v>
@@ -6117,19 +6117,19 @@
         <v>42271</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30936</v>
+        <v>30832</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>56357</v>
+        <v>54705</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06432305866110509</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04707412922423888</v>
+        <v>0.04691702535573495</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08575733500192059</v>
+        <v>0.08324341443801794</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>1689989</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1633370</v>
+        <v>1630751</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1743949</v>
+        <v>1751171</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.497882819009114</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4812026742259131</v>
+        <v>0.4804309908674266</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5137800044849611</v>
+        <v>0.5159076738025561</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2111</v>
@@ -6242,19 +6242,19 @@
         <v>2298617</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2237161</v>
+        <v>2240977</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2358284</v>
+        <v>2359504</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6484946858528446</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6311566353387356</v>
+        <v>0.6322330969634893</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6653283202951705</v>
+        <v>0.6656723996851344</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3732</v>
@@ -6263,19 +6263,19 @@
         <v>3988605</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3899348</v>
+        <v>3901265</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4065458</v>
+        <v>4077946</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5748187421006086</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.561955432459523</v>
+        <v>0.5622317470692983</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5858943776659914</v>
+        <v>0.5876940715109631</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>1704361</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1650401</v>
+        <v>1643179</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1760980</v>
+        <v>1763599</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5021171809908861</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.486219995515039</v>
+        <v>0.484092326197444</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5187973257740871</v>
+        <v>0.5195690091325734</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1227</v>
@@ -6313,19 +6313,19 @@
         <v>1245925</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1186258</v>
+        <v>1185038</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1307381</v>
+        <v>1303565</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3515053141471553</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3346716797048295</v>
+        <v>0.3343276003148656</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3688433646612644</v>
+        <v>0.3677669030365108</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2837</v>
@@ -6334,19 +6334,19 @@
         <v>2950287</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2873434</v>
+        <v>2860946</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3039544</v>
+        <v>3037627</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4251812578993914</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4141056223340086</v>
+        <v>0.4123059284890368</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4380445675404771</v>
+        <v>0.4377682529307017</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>102521</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>76286</v>
+        <v>76685</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>134334</v>
+        <v>134930</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2514054178179409</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1870691797547225</v>
+        <v>0.1880477950408637</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3294183560900442</v>
+        <v>0.3308789474764433</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>78</v>
@@ -6702,19 +6702,19 @@
         <v>139883</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>114559</v>
+        <v>115039</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>163603</v>
+        <v>166670</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3858723473725545</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3160154897926932</v>
+        <v>0.317338058543195</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4513026348459769</v>
+        <v>0.4597645932898258</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -6723,19 +6723,19 @@
         <v>242405</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>202068</v>
+        <v>203204</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>281625</v>
+        <v>280258</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3146866763058781</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2623226990378346</v>
+        <v>0.2637970549538778</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3656024476057339</v>
+        <v>0.3638279429334687</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>305272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>273459</v>
+        <v>272863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>331507</v>
+        <v>331108</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7485945821820592</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6705816439099564</v>
+        <v>0.6691210525235566</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8129308202452779</v>
+        <v>0.8119522049591363</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>129</v>
@@ -6773,19 +6773,19 @@
         <v>222629</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>198909</v>
+        <v>195842</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>247953</v>
+        <v>247473</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6141276526274453</v>
+        <v>0.6141276526274454</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5486973651540231</v>
+        <v>0.540235406710174</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6839845102073067</v>
+        <v>0.6826619414568046</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>260</v>
@@ -6794,19 +6794,19 @@
         <v>527900</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>488680</v>
+        <v>490047</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>568237</v>
+        <v>567101</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6853133236941219</v>
+        <v>0.6853133236941218</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6343975523942662</v>
+        <v>0.6361720570665313</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7376773009621654</v>
+        <v>0.7362029450461222</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>156498</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128861</v>
+        <v>129585</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>182920</v>
+        <v>185191</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.328163409965458</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2702103612281318</v>
+        <v>0.2717287866853927</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.38356907941369</v>
+        <v>0.3883307917878229</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>200</v>
@@ -6919,19 +6919,19 @@
         <v>219305</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>196634</v>
+        <v>193785</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>243013</v>
+        <v>241931</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4376612773952443</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3924175374036822</v>
+        <v>0.3867331780851558</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4849759901847999</v>
+        <v>0.4828167974743491</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>296</v>
@@ -6940,19 +6940,19 @@
         <v>375802</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>339948</v>
+        <v>340173</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>412861</v>
+        <v>411986</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.384266707130463</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3476047418234882</v>
+        <v>0.3478350821801786</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4221595120407292</v>
+        <v>0.421264946262422</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>320392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>293970</v>
+        <v>291699</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>348029</v>
+        <v>347305</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.671836590034542</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6164309205863101</v>
+        <v>0.6116692082121772</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7297896387718682</v>
+        <v>0.728271213314607</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>260</v>
@@ -6990,19 +6990,19 @@
         <v>281778</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>258070</v>
+        <v>259152</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>304449</v>
+        <v>307298</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5623387226047558</v>
+        <v>0.5623387226047557</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5150240098152004</v>
+        <v>0.5171832025256508</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6075824625963179</v>
+        <v>0.6132668219148444</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>466</v>
@@ -7011,19 +7011,19 @@
         <v>602171</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>565112</v>
+        <v>565987</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>638025</v>
+        <v>637800</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6157332928695369</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5778404879592708</v>
+        <v>0.5787350537375781</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6523952581765118</v>
+        <v>0.6521649178198212</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>232898</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>208618</v>
+        <v>204759</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>258171</v>
+        <v>256680</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3751362919328032</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3360266865971585</v>
+        <v>0.3298105596227578</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4158433324614743</v>
+        <v>0.4134412936083633</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>433</v>
@@ -7136,19 +7136,19 @@
         <v>310083</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>289784</v>
+        <v>287310</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>330098</v>
+        <v>331499</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4984140814735419</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4657865238728183</v>
+        <v>0.4618106959945826</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5305848545036521</v>
+        <v>0.5328369596273607</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>642</v>
@@ -7157,19 +7157,19 @@
         <v>542981</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>513516</v>
+        <v>507314</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>579014</v>
+        <v>572931</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4368397738306329</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4131346387727744</v>
+        <v>0.4081445037489717</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4658291259474333</v>
+        <v>0.4609345096435951</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>387939</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>362666</v>
+        <v>364157</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>412219</v>
+        <v>416078</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6248637080671968</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5841566675385257</v>
+        <v>0.5865587063916365</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6639733134028416</v>
+        <v>0.6701894403772419</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>413</v>
@@ -7207,19 +7207,19 @@
         <v>312056</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>292041</v>
+        <v>290640</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332355</v>
+        <v>334829</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5015859185264581</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.469415145496348</v>
+        <v>0.4671630403726393</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.534213476127182</v>
+        <v>0.5381893040054169</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>750</v>
@@ -7228,19 +7228,19 @@
         <v>699995</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>663962</v>
+        <v>670045</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>729460</v>
+        <v>735662</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5631602261693671</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5341708740525677</v>
+        <v>0.5390654903564051</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5868653612272259</v>
+        <v>0.5918554962510285</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>352583</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>325803</v>
+        <v>325265</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>381291</v>
+        <v>379963</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5032458685198704</v>
+        <v>0.5032458685198703</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.465023096197204</v>
+        <v>0.4642555841624982</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5442213515140493</v>
+        <v>0.54232568462494</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>703</v>
@@ -7353,19 +7353,19 @@
         <v>449254</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>428661</v>
+        <v>428861</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>470294</v>
+        <v>470565</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6096657397407701</v>
+        <v>0.60966573974077</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5817192908942995</v>
+        <v>0.5819912722068412</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6382177634349027</v>
+        <v>0.6385863653825207</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1037</v>
@@ -7374,19 +7374,19 @@
         <v>801837</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>765241</v>
+        <v>763938</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>834833</v>
+        <v>834707</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5577983278788905</v>
+        <v>0.5577983278788906</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5323400917584551</v>
+        <v>0.5314336554184267</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5807520048473233</v>
+        <v>0.5806639624991962</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>348034</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>319326</v>
+        <v>320654</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>374814</v>
+        <v>375352</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4967541314801298</v>
+        <v>0.4967541314801296</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4557786484859507</v>
+        <v>0.4576743153750596</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5349769038027961</v>
+        <v>0.5357444158375018</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>438</v>
@@ -7424,19 +7424,19 @@
         <v>287632</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>266592</v>
+        <v>266321</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>308225</v>
+        <v>308025</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.39033426025923</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3617822365650972</v>
+        <v>0.3614136346174792</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4182807091057008</v>
+        <v>0.4180087277931583</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>769</v>
@@ -7445,19 +7445,19 @@
         <v>635667</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>602671</v>
+        <v>602797</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>672263</v>
+        <v>673566</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4422016721211094</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4192479951526767</v>
+        <v>0.4193360375008038</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4676599082415449</v>
+        <v>0.4685663445815735</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>422419</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>399405</v>
+        <v>400228</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>444683</v>
+        <v>442535</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6932336126503726</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.655465358930412</v>
+        <v>0.6568160146293558</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7297711343580088</v>
+        <v>0.7262458512664087</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>750</v>
@@ -7570,19 +7570,19 @@
         <v>455890</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>439603</v>
+        <v>438314</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>472890</v>
+        <v>470272</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7504998877880836</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7236878454984639</v>
+        <v>0.7215655027762289</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7784861901137052</v>
+        <v>0.7741763030140507</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1216</v>
@@ -7591,19 +7591,19 @@
         <v>878309</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>850648</v>
+        <v>849863</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>903513</v>
+        <v>903693</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7218220719846541</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6990892719378399</v>
+        <v>0.6984443218062911</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7425355655026058</v>
+        <v>0.7426836702534367</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>186927</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>164663</v>
+        <v>166811</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209941</v>
+        <v>209118</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3067663873496272</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2702288656419907</v>
+        <v>0.2737541487335909</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3445346410695881</v>
+        <v>0.3431839853706442</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>250</v>
@@ -7641,19 +7641,19 @@
         <v>151558</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>134558</v>
+        <v>137176</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>167845</v>
+        <v>169134</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2495001122119161</v>
+        <v>0.2495001122119162</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2215138098862948</v>
+        <v>0.2258236969859493</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2763121545015361</v>
+        <v>0.2784344972237713</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>447</v>
@@ -7662,19 +7662,19 @@
         <v>338485</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>313281</v>
+        <v>313101</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>366146</v>
+        <v>366931</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2781779280153459</v>
+        <v>0.2781779280153458</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2574644344973941</v>
+        <v>0.2573163297465632</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3009107280621599</v>
+        <v>0.3015556781937089</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>311188</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>296240</v>
+        <v>296400</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>326010</v>
+        <v>325630</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7644393789871121</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7277184990442034</v>
+        <v>0.7281123141427982</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8008506783919337</v>
+        <v>0.7999171905559608</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>690</v>
@@ -7787,19 +7787,19 @@
         <v>365907</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>353654</v>
+        <v>354469</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>377380</v>
+        <v>376910</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.8331863149669477</v>
+        <v>0.8331863149669475</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8052864068143946</v>
+        <v>0.8071408582591496</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8593102797938357</v>
+        <v>0.8582412928509688</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1130</v>
@@ -7808,19 +7808,19 @@
         <v>677095</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>657409</v>
+        <v>657255</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>695274</v>
+        <v>695408</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8001161594374303</v>
+        <v>0.8001161594374304</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7768530268992361</v>
+        <v>0.7766713012815308</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8215978442166225</v>
+        <v>0.8217568900537066</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>95892</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81070</v>
+        <v>81450</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>110840</v>
+        <v>110680</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2355606210128879</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1991493216080664</v>
+        <v>0.2000828094440394</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2722815009557968</v>
+        <v>0.2718876858572018</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>137</v>
@@ -7858,19 +7858,19 @@
         <v>73259</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>61786</v>
+        <v>62256</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>85512</v>
+        <v>84697</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1668136850330524</v>
+        <v>0.1668136850330523</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1406897202061644</v>
+        <v>0.1417587071490312</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1947135931856056</v>
+        <v>0.1928591417408505</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>267</v>
@@ -7879,19 +7879,19 @@
         <v>169151</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>150972</v>
+        <v>150838</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>188837</v>
+        <v>188991</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1998838405625695</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1784021557833775</v>
+        <v>0.1782431099462932</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2231469731007638</v>
+        <v>0.223328698718469</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>267190</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>255717</v>
+        <v>256784</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>277217</v>
+        <v>277397</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8613536434265204</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8243663048153282</v>
+        <v>0.8278082541234817</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8936783389662152</v>
+        <v>0.8942579653973801</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>813</v>
@@ -8004,19 +8004,19 @@
         <v>424254</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>413537</v>
+        <v>413321</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>432721</v>
+        <v>432740</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9143285315531992</v>
+        <v>0.9143285315531989</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8912315348065184</v>
+        <v>0.8907657495225034</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9325752862322613</v>
+        <v>0.9326162182730143</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1215</v>
@@ -8025,19 +8025,19 @@
         <v>691444</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>677026</v>
+        <v>677354</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>704735</v>
+        <v>705440</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8931032232692583</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8744804332132233</v>
+        <v>0.8749041116330428</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9102707772301579</v>
+        <v>0.9111806869862413</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>43008</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>32981</v>
+        <v>32801</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>54481</v>
+        <v>53414</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1386463565734795</v>
+        <v>0.1386463565734794</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1063216610337849</v>
+        <v>0.1057420346026201</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1756336951846716</v>
+        <v>0.1721917458765185</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>67</v>
@@ -8075,19 +8075,19 @@
         <v>39752</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>31285</v>
+        <v>31266</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>50469</v>
+        <v>50685</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08567146844680094</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0674247137677387</v>
+        <v>0.06738378172698561</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1087684651934814</v>
+        <v>0.1092342504774964</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>123</v>
@@ -8096,19 +8096,19 @@
         <v>82760</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>69469</v>
+        <v>68764</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>97178</v>
+        <v>96850</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1068967767307415</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08972922276984198</v>
+        <v>0.08881931301375864</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1255195667867765</v>
+        <v>0.125095888366957</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1845298</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1777693</v>
+        <v>1776200</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1912834</v>
+        <v>1912555</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5223386540422841</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5032021453825413</v>
+        <v>0.502779326685167</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5414555268577151</v>
+        <v>0.5413766916103753</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3667</v>
@@ -8221,19 +8221,19 @@
         <v>2364576</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2312242</v>
+        <v>2308505</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2421412</v>
+        <v>2413954</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6333842766539352</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.619365904362322</v>
+        <v>0.6183647945765089</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6486085641057483</v>
+        <v>0.6466108111255088</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5655</v>
@@ -8242,19 +8242,19 @@
         <v>4209874</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4126914</v>
+        <v>4127372</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4298397</v>
+        <v>4296494</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5793934134624155</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5679757667926241</v>
+        <v>0.5680388445283928</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.591576507911068</v>
+        <v>0.5913147141511147</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>1687464</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1619928</v>
+        <v>1620207</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1755069</v>
+        <v>1756562</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4776613459577161</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4585444731422851</v>
+        <v>0.4586233083896247</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.496797854617459</v>
+        <v>0.4972206733148329</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1694</v>
@@ -8292,19 +8292,19 @@
         <v>1368665</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1311829</v>
+        <v>1319287</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1420999</v>
+        <v>1424736</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3666157233460649</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3513914358942516</v>
+        <v>0.3533891888744914</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3806340956376781</v>
+        <v>0.3816352054234916</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3082</v>
@@ -8313,19 +8313,19 @@
         <v>3056129</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2967606</v>
+        <v>2969509</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3139089</v>
+        <v>3138631</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4206065865375846</v>
+        <v>0.4206065865375845</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4084234920889331</v>
+        <v>0.4086852858488855</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4320242332073758</v>
+        <v>0.4319611554716074</v>
       </c>
     </row>
     <row r="27">
